--- a/Code/Results/Cases/Case_2_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9581544282269761</v>
+        <v>0.5989378127028715</v>
       </c>
       <c r="C2">
-        <v>0.08804432593990441</v>
+        <v>0.06512197661199792</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04023335665934091</v>
+        <v>0.09207146401279331</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.6241578774382077</v>
+        <v>1.145091058403949</v>
       </c>
       <c r="H2">
-        <v>0.4919954997260305</v>
+        <v>1.13755260135764</v>
       </c>
       <c r="I2">
-        <v>0.5163831195783359</v>
+        <v>1.123262273959412</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8608317111302313</v>
+        <v>0.3772425275440696</v>
       </c>
       <c r="L2">
-        <v>0.1615432041776472</v>
+        <v>0.2144301975427965</v>
       </c>
       <c r="M2">
-        <v>0.212650632011556</v>
+        <v>0.1763691086489203</v>
       </c>
       <c r="N2">
-        <v>1.092307627718755</v>
+        <v>2.234211245682259</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8358106597270023</v>
+        <v>0.5665629001256605</v>
       </c>
       <c r="C3">
-        <v>0.07985813687694332</v>
+        <v>0.06235449474846178</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03920687012464441</v>
+        <v>0.09225022174989128</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.6155192203227529</v>
+        <v>1.150757544239781</v>
       </c>
       <c r="H3">
-        <v>0.4952163656774644</v>
+        <v>1.144724194956851</v>
       </c>
       <c r="I3">
-        <v>0.5210895710458843</v>
+        <v>1.131205857683689</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7470768115993565</v>
+        <v>0.3454086706624082</v>
       </c>
       <c r="L3">
-        <v>0.1473264577096742</v>
+        <v>0.2118361181208499</v>
       </c>
       <c r="M3">
-        <v>0.1873623768731711</v>
+        <v>0.1701809890785846</v>
       </c>
       <c r="N3">
-        <v>1.144040329288154</v>
+        <v>2.255917883416234</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7611651354079072</v>
+        <v>0.5469323596284141</v>
       </c>
       <c r="C4">
-        <v>0.07483688194255222</v>
+        <v>0.0606318390217595</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03861853044137931</v>
+        <v>0.09239024742123547</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.6115138599212671</v>
+        <v>1.154859441009783</v>
       </c>
       <c r="H4">
-        <v>0.4979636473758831</v>
+        <v>1.149570685602839</v>
       </c>
       <c r="I4">
-        <v>0.5248842818437502</v>
+        <v>1.136570968257015</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6775838449604805</v>
+        <v>0.325984533796543</v>
       </c>
       <c r="L4">
-        <v>0.138773754238251</v>
+        <v>0.2103461761103915</v>
       </c>
       <c r="M4">
-        <v>0.171983571175204</v>
+        <v>0.1664636170782146</v>
       </c>
       <c r="N4">
-        <v>1.177136084589849</v>
+        <v>2.269926114499752</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7308512380792536</v>
+        <v>0.5389955528331427</v>
       </c>
       <c r="C5">
-        <v>0.07279059379703057</v>
+        <v>0.05992394189422612</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03838901592974509</v>
+        <v>0.09245493871696908</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6101933716249306</v>
+        <v>1.156687521659464</v>
       </c>
       <c r="H5">
-        <v>0.4992701078405162</v>
+        <v>1.151657167967308</v>
       </c>
       <c r="I5">
-        <v>0.5266500989609675</v>
+        <v>1.138879972878446</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6493396257018276</v>
+        <v>0.3181000535234659</v>
       </c>
       <c r="L5">
-        <v>0.1353301261324731</v>
+        <v>0.2097649353289057</v>
       </c>
       <c r="M5">
-        <v>0.1657504463448767</v>
+        <v>0.1649695199489045</v>
       </c>
       <c r="N5">
-        <v>1.190950652090621</v>
+        <v>2.275805665856957</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7258235584173462</v>
+        <v>0.5376814593847143</v>
       </c>
       <c r="C6">
-        <v>0.07245076558472618</v>
+        <v>0.05980603930315453</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03835151498022249</v>
+        <v>0.09246614202073289</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.6099925124691481</v>
+        <v>1.157000525412606</v>
       </c>
       <c r="H6">
-        <v>0.4994981470344655</v>
+        <v>1.152010363238716</v>
       </c>
       <c r="I6">
-        <v>0.5269563356307749</v>
+        <v>1.139270791945105</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6446538123405929</v>
+        <v>0.31679272474328</v>
       </c>
       <c r="L6">
-        <v>0.1347607545955114</v>
+        <v>0.209669988304455</v>
       </c>
       <c r="M6">
-        <v>0.1647173892857694</v>
+        <v>0.1647226832687672</v>
       </c>
       <c r="N6">
-        <v>1.1932641471948</v>
+        <v>2.276792294668283</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7607559059426023</v>
+        <v>0.5468250661602951</v>
       </c>
       <c r="C7">
-        <v>0.0748092870821111</v>
+        <v>0.06062231598431822</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03861539406415737</v>
+        <v>0.09239108895343051</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6114948082849025</v>
+        <v>1.15488346144592</v>
       </c>
       <c r="H7">
-        <v>0.4979805184207819</v>
+        <v>1.149598373082014</v>
       </c>
       <c r="I7">
-        <v>0.5249072181870069</v>
+        <v>1.136601611530885</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6772026489643963</v>
+        <v>0.3258780749156216</v>
       </c>
       <c r="L7">
-        <v>0.1387271470225286</v>
+        <v>0.2103382322482332</v>
       </c>
       <c r="M7">
-        <v>0.1718993763582226</v>
+        <v>0.1664433829603489</v>
       </c>
       <c r="N7">
-        <v>1.177321074604697</v>
+        <v>2.270004715443699</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9158629378250112</v>
+        <v>0.5877237972984517</v>
       </c>
       <c r="C8">
-        <v>0.08521981841708026</v>
+        <v>0.06417259857299484</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03987053425659504</v>
+        <v>0.09212682868156463</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.620900515994478</v>
+        <v>1.146915601863199</v>
       </c>
       <c r="H8">
-        <v>0.4929422250352076</v>
+        <v>1.139933446031122</v>
       </c>
       <c r="I8">
-        <v>0.5178130797400797</v>
+        <v>1.125900018063128</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.821527035999992</v>
+        <v>0.3662410906011928</v>
       </c>
       <c r="L8">
-        <v>0.1566029807157747</v>
+        <v>0.2135144532415083</v>
       </c>
       <c r="M8">
-        <v>0.2038983408583732</v>
+        <v>0.1742184523410515</v>
       </c>
       <c r="N8">
-        <v>1.109864313850576</v>
+        <v>2.241554521609633</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.224494167726789</v>
+        <v>0.6698751639467275</v>
       </c>
       <c r="C9">
-        <v>0.1057421626694577</v>
+        <v>0.07094985097104711</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04267912519849837</v>
+        <v>0.09184800543126137</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6503607482257223</v>
+        <v>1.136234028966129</v>
       </c>
       <c r="H9">
-        <v>0.4894848803031095</v>
+        <v>1.124493253796629</v>
       </c>
       <c r="I9">
-        <v>0.5114679803652038</v>
+        <v>1.108782627802476</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.108033084781511</v>
+        <v>0.4463499205432697</v>
       </c>
       <c r="L9">
-        <v>0.1931875817520705</v>
+        <v>0.2205566754393402</v>
       </c>
       <c r="M9">
-        <v>0.2679913374255705</v>
+        <v>0.1901136624830571</v>
       </c>
       <c r="N9">
-        <v>0.9884811426668207</v>
+        <v>2.191159441271571</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455032612886981</v>
+        <v>0.7314038139879813</v>
       </c>
       <c r="C10">
-        <v>0.1209865539098018</v>
+        <v>0.07581807244227434</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04497590766963633</v>
+        <v>0.0917881288845841</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.679770752275715</v>
+        <v>1.131405115537376</v>
       </c>
       <c r="H10">
-        <v>0.4913271179486429</v>
+        <v>1.115286911346175</v>
       </c>
       <c r="I10">
-        <v>0.5119884288410219</v>
+        <v>1.098563210377122</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.321688413658961</v>
+        <v>0.5057810188641838</v>
       </c>
       <c r="L10">
-        <v>0.2211932196079687</v>
+        <v>0.2262243945203295</v>
       </c>
       <c r="M10">
-        <v>0.3161494454671541</v>
+        <v>0.2021837093980636</v>
       </c>
       <c r="N10">
-        <v>0.9064310851164734</v>
+        <v>2.15741959578139</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.560987889576012</v>
+        <v>0.759646266896965</v>
       </c>
       <c r="C11">
-        <v>0.1279824119029485</v>
+        <v>0.07800902171375412</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04607653645779841</v>
+        <v>0.09179217053961786</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.6950868641228283</v>
+        <v>1.129865051854509</v>
       </c>
       <c r="H11">
-        <v>0.4932282855619832</v>
+        <v>1.111562088938967</v>
       </c>
       <c r="I11">
-        <v>0.513486062802663</v>
+        <v>1.094425596213561</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.419820090245736</v>
+        <v>0.5329412583388944</v>
       </c>
       <c r="L11">
-        <v>0.2342245971351105</v>
+        <v>0.228909588850172</v>
       </c>
       <c r="M11">
-        <v>0.338349747332451</v>
+        <v>0.2077591347329459</v>
       </c>
       <c r="N11">
-        <v>0.870768381195079</v>
+        <v>2.142783030310971</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.601288489113699</v>
+        <v>0.7703768915062597</v>
       </c>
       <c r="C12">
-        <v>0.1306425677243652</v>
+        <v>0.07883530009318918</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04650178998060639</v>
+        <v>0.09179818141188889</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7011877843679457</v>
+        <v>1.129376376615781</v>
       </c>
       <c r="H12">
-        <v>0.4941111347426386</v>
+        <v>1.11021814034406</v>
       </c>
       <c r="I12">
-        <v>0.5142466919978048</v>
+        <v>1.092932285933131</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.457136961189264</v>
+        <v>0.5432438112411262</v>
       </c>
       <c r="L12">
-        <v>0.2392052339146034</v>
+        <v>0.229941724283691</v>
       </c>
       <c r="M12">
-        <v>0.3468038229020181</v>
+        <v>0.2098824986483123</v>
       </c>
       <c r="N12">
-        <v>0.8575134910777287</v>
+        <v>2.137342891463327</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.592600765245322</v>
+        <v>0.7680642747464788</v>
       </c>
       <c r="C13">
-        <v>0.1300691305268771</v>
+        <v>0.0786574966998046</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04640981997947868</v>
+        <v>0.09179668787671602</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.6998600780101469</v>
+        <v>1.129477416618684</v>
       </c>
       <c r="H13">
-        <v>0.4939135836945354</v>
+        <v>1.110504624120665</v>
       </c>
       <c r="I13">
-        <v>0.5140740669969901</v>
+        <v>1.093250627484466</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.449092782822703</v>
+        <v>0.5410241971732432</v>
       </c>
       <c r="L13">
-        <v>0.2381304545095873</v>
+        <v>0.229718755533483</v>
       </c>
       <c r="M13">
-        <v>0.3449808961125669</v>
+        <v>0.2094246590888389</v>
       </c>
       <c r="N13">
-        <v>0.860356879064053</v>
+        <v>2.138509967179742</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.564299752071747</v>
+        <v>0.7605283669570326</v>
       </c>
       <c r="C14">
-        <v>0.1282010313348678</v>
+        <v>0.07807706794203284</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0461113499402046</v>
+        <v>0.09179257536473706</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.6955826227273576</v>
+        <v>1.129822953539474</v>
       </c>
       <c r="H14">
-        <v>0.4932975928091423</v>
+        <v>1.111450187757242</v>
       </c>
       <c r="I14">
-        <v>0.5135446890635293</v>
+        <v>1.094301267353202</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.422886905256775</v>
+        <v>0.53378850580566</v>
       </c>
       <c r="L14">
-        <v>0.2346334124208624</v>
+        <v>0.2289941967749058</v>
       </c>
       <c r="M14">
-        <v>0.3390442901761617</v>
+        <v>0.2079335838539649</v>
       </c>
       <c r="N14">
-        <v>0.8696728225686048</v>
+        <v>2.142333414071548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.546988379296408</v>
+        <v>0.7559170551306522</v>
       </c>
       <c r="C15">
-        <v>0.1270582642328435</v>
+        <v>0.07772109787065062</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04592964503097186</v>
+        <v>0.09179063928901599</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.6930024566334652</v>
+        <v>1.130046916009164</v>
       </c>
       <c r="H15">
-        <v>0.4929418080292152</v>
+        <v>1.112038039643082</v>
       </c>
       <c r="I15">
-        <v>0.5132460070764111</v>
+        <v>1.094954388284847</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.406856101222644</v>
+        <v>0.5293587115079958</v>
       </c>
       <c r="L15">
-        <v>0.2324974797408288</v>
+        <v>0.2285523755954415</v>
       </c>
       <c r="M15">
-        <v>0.3354142680446444</v>
+        <v>0.20702182604375</v>
       </c>
       <c r="N15">
-        <v>0.8754119713118946</v>
+        <v>2.144688724035188</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448131807971919</v>
+        <v>0.7295631444985133</v>
       </c>
       <c r="C16">
-        <v>0.1205307706983092</v>
+        <v>0.07567441424227184</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04490513933879292</v>
+        <v>0.09178849267599531</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.6788106752908334</v>
+        <v>1.131518983181863</v>
       </c>
       <c r="H16">
-        <v>0.491225106809182</v>
+        <v>1.115539653912279</v>
       </c>
       <c r="I16">
-        <v>0.5119169498518303</v>
+        <v>1.098843900603711</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.315295972930073</v>
+        <v>0.504008511099471</v>
       </c>
       <c r="L16">
-        <v>0.2203477912080132</v>
+        <v>0.2260510567642768</v>
       </c>
       <c r="M16">
-        <v>0.3147049323865048</v>
+        <v>0.2018210373578242</v>
       </c>
       <c r="N16">
-        <v>0.9087960791485781</v>
+        <v>2.15839045807636</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.387778836446046</v>
+        <v>0.7134602378067427</v>
       </c>
       <c r="C17">
-        <v>0.1165435159100099</v>
+        <v>0.07441279619401087</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04429123971058146</v>
+        <v>0.09179517475958399</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.6706161499365351</v>
+        <v>1.13259029248205</v>
       </c>
       <c r="H17">
-        <v>0.4904511756997323</v>
+        <v>1.117806382218774</v>
       </c>
       <c r="I17">
-        <v>0.5114329651015765</v>
+        <v>1.101360931692184</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.259382065832966</v>
+        <v>0.4884886636434373</v>
       </c>
       <c r="L17">
-        <v>0.2129717796415065</v>
+        <v>0.2245439177666384</v>
       </c>
       <c r="M17">
-        <v>0.3020790222058665</v>
+        <v>0.1986521385986961</v>
       </c>
       <c r="N17">
-        <v>0.9297093214352525</v>
+        <v>2.166978384354838</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.353165851517844</v>
+        <v>0.7042220943304187</v>
       </c>
       <c r="C18">
-        <v>0.1142557625199743</v>
+        <v>0.07368492211226396</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04394336587173875</v>
+        <v>0.09180196337038815</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6660837913903634</v>
+        <v>1.133268281261181</v>
       </c>
       <c r="H18">
-        <v>0.4901054541875851</v>
+        <v>1.119153744564187</v>
       </c>
       <c r="I18">
-        <v>0.5112724900802021</v>
+        <v>1.102856782795754</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.227308846292317</v>
+        <v>0.4795738210566753</v>
       </c>
       <c r="L18">
-        <v>0.2087564706602762</v>
+        <v>0.2236871189970771</v>
       </c>
       <c r="M18">
-        <v>0.2948441735752283</v>
+        <v>0.1968374507418105</v>
       </c>
       <c r="N18">
-        <v>0.9418938382826347</v>
+        <v>2.171984933009066</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341463096943414</v>
+        <v>0.7010983252608014</v>
       </c>
       <c r="C19">
-        <v>0.1134820683632682</v>
+        <v>0.0734380940046151</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04382646610016216</v>
+        <v>0.09180476826463924</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.6645796271725004</v>
+        <v>1.133508448075261</v>
       </c>
       <c r="H19">
-        <v>0.4900051806570787</v>
+        <v>1.119617428069702</v>
       </c>
       <c r="I19">
-        <v>0.5112380478627117</v>
+        <v>1.103371517269359</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.216463714320923</v>
+        <v>0.4765574403569133</v>
       </c>
       <c r="L19">
-        <v>0.207333789194621</v>
+        <v>0.2233987527575181</v>
       </c>
       <c r="M19">
-        <v>0.2923991050464494</v>
+        <v>0.1962244023017092</v>
       </c>
       <c r="N19">
-        <v>0.9460457447122899</v>
+        <v>2.17369157042233</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.394192962967651</v>
+        <v>0.7151719579810276</v>
       </c>
       <c r="C20">
-        <v>0.1169673700964893</v>
+        <v>0.07454732776005812</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04435604648283764</v>
+        <v>0.09179415874551111</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.6714695895764748</v>
+        <v>1.132469853053934</v>
       </c>
       <c r="H20">
-        <v>0.4905232016422616</v>
+        <v>1.117560572994535</v>
       </c>
       <c r="I20">
-        <v>0.5114721982944275</v>
+        <v>1.101088009072519</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.265325043646357</v>
+        <v>0.4901395631841012</v>
       </c>
       <c r="L20">
-        <v>0.2137541276089934</v>
+        <v>0.2247033137814469</v>
       </c>
       <c r="M20">
-        <v>0.3034202162357786</v>
+        <v>0.1989886482814995</v>
       </c>
       <c r="N20">
-        <v>0.9274668736016842</v>
+        <v>2.166057250301948</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.572607441009325</v>
+        <v>0.7627408777791516</v>
       </c>
       <c r="C21">
-        <v>0.1287494210788509</v>
+        <v>0.07824764575966014</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04619878429313751</v>
+        <v>0.09179366185301063</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.6968306577576726</v>
+        <v>1.129718895180289</v>
       </c>
       <c r="H21">
-        <v>0.4934740189954709</v>
+        <v>1.111170646710647</v>
       </c>
       <c r="I21">
-        <v>0.5136948269038868</v>
+        <v>1.093990673814545</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.430579778604738</v>
+        <v>0.5359133301987242</v>
       </c>
       <c r="L21">
-        <v>0.2356592982643235</v>
+        <v>0.2292066022341004</v>
       </c>
       <c r="M21">
-        <v>0.3407866882928516</v>
+        <v>0.2083712220466509</v>
       </c>
       <c r="N21">
-        <v>0.8669296349257642</v>
+        <v>2.141207595251862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.69025844037111</v>
+        <v>0.794038462656971</v>
       </c>
       <c r="C22">
-        <v>0.1365148047600542</v>
+        <v>0.08064628319495171</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04745271232158466</v>
+        <v>0.09181944407727727</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.7151719072708573</v>
+        <v>1.128471924041818</v>
       </c>
       <c r="H22">
-        <v>0.4963573656601454</v>
+        <v>1.107382407489425</v>
       </c>
       <c r="I22">
-        <v>0.5162816579209348</v>
+        <v>1.08978065234313</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.539506908533667</v>
+        <v>0.565931308991992</v>
       </c>
       <c r="L22">
-        <v>0.2502454238497194</v>
+        <v>0.2322389736134625</v>
       </c>
       <c r="M22">
-        <v>0.3654862380020063</v>
+        <v>0.2145735870472194</v>
       </c>
       <c r="N22">
-        <v>0.8288266514870841</v>
+        <v>2.12556386164902</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.627362391594517</v>
+        <v>0.7773154444557804</v>
       </c>
       <c r="C23">
-        <v>0.1323635405229737</v>
+        <v>0.07936788723294796</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0467787754497806</v>
+        <v>0.0918033006366219</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.7052133639863314</v>
+        <v>1.129087015137742</v>
       </c>
       <c r="H23">
-        <v>0.4947275889956444</v>
+        <v>1.109368779589943</v>
       </c>
       <c r="I23">
-        <v>0.5147929749457276</v>
+        <v>1.091988413232549</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.481278386806338</v>
+        <v>0.5499009243326611</v>
       </c>
       <c r="L23">
-        <v>0.2424344402729872</v>
+        <v>0.2306123983321271</v>
       </c>
       <c r="M23">
-        <v>0.3522763381542546</v>
+        <v>0.2112568705412698</v>
       </c>
       <c r="N23">
-        <v>0.8490254312735299</v>
+        <v>2.13385857938165</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.391292874058905</v>
+        <v>0.7143980280986284</v>
       </c>
       <c r="C24">
-        <v>0.1167757315403009</v>
+        <v>0.07448651399442952</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04432673159723421</v>
+        <v>0.0917946089048538</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6710831943236286</v>
+        <v>1.132524110353231</v>
       </c>
       <c r="H24">
-        <v>0.4904903304105659</v>
+        <v>1.117671565689434</v>
       </c>
       <c r="I24">
-        <v>0.5114540950392197</v>
+        <v>1.101211245451481</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.262637999380814</v>
+        <v>0.4893931674130272</v>
       </c>
       <c r="L24">
-        <v>0.2134003497197341</v>
+        <v>0.2246312207009993</v>
       </c>
       <c r="M24">
-        <v>0.3028137881864126</v>
+        <v>0.1988364899612378</v>
       </c>
       <c r="N24">
-        <v>0.9284801829230247</v>
+        <v>2.166473479341127</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140417480188916</v>
+        <v>0.6474440528338619</v>
       </c>
       <c r="C25">
-        <v>0.1001688572554826</v>
+        <v>0.06913604150216202</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04187999467564119</v>
+        <v>0.09189790594840197</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6411074387347213</v>
+        <v>1.138593916943606</v>
       </c>
       <c r="H25">
-        <v>0.4896862694518802</v>
+        <v>1.128294579852778</v>
       </c>
       <c r="I25">
-        <v>0.5123178993606601</v>
+        <v>1.112999359795438</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.03004987462532</v>
+        <v>0.4245767571747479</v>
       </c>
       <c r="L25">
-        <v>0.1831073608105953</v>
+        <v>0.2185646902249871</v>
       </c>
       <c r="M25">
-        <v>0.2504838512774334</v>
+        <v>0.1857445309808128</v>
       </c>
       <c r="N25">
-        <v>1.020103515308703</v>
+        <v>2.204215420786491</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5989378127028715</v>
+        <v>0.9581544282268908</v>
       </c>
       <c r="C2">
-        <v>0.06512197661199792</v>
+        <v>0.08804432593983336</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09207146401279331</v>
+        <v>0.04023335665935512</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.145091058403949</v>
+        <v>0.6241578774381793</v>
       </c>
       <c r="H2">
-        <v>1.13755260135764</v>
+        <v>0.4919954997260447</v>
       </c>
       <c r="I2">
-        <v>1.123262273959412</v>
+        <v>0.5163831195783182</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3772425275440696</v>
+        <v>0.8608317111302313</v>
       </c>
       <c r="L2">
-        <v>0.2144301975427965</v>
+        <v>0.1615432041777325</v>
       </c>
       <c r="M2">
-        <v>0.1763691086489203</v>
+        <v>0.2126506320115382</v>
       </c>
       <c r="N2">
-        <v>2.234211245682259</v>
+        <v>1.092307627718727</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5665629001256605</v>
+        <v>0.8358106597269739</v>
       </c>
       <c r="C3">
-        <v>0.06235449474846178</v>
+        <v>0.07985813687725596</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09225022174989128</v>
+        <v>0.03920687012464263</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.150757544239781</v>
+        <v>0.6155192203227813</v>
       </c>
       <c r="H3">
-        <v>1.144724194956851</v>
+        <v>0.4952163656775781</v>
       </c>
       <c r="I3">
-        <v>1.131205857683689</v>
+        <v>0.5210895710459162</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3454086706624082</v>
+        <v>0.747076811599328</v>
       </c>
       <c r="L3">
-        <v>0.2118361181208499</v>
+        <v>0.1473264577096813</v>
       </c>
       <c r="M3">
-        <v>0.1701809890785846</v>
+        <v>0.1873623768731996</v>
       </c>
       <c r="N3">
-        <v>2.255917883416234</v>
+        <v>1.144040329288155</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5469323596284141</v>
+        <v>0.7611651354080209</v>
       </c>
       <c r="C4">
-        <v>0.0606318390217595</v>
+        <v>0.07483688194254512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09239024742123547</v>
+        <v>0.03861853044139529</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.154859441009783</v>
+        <v>0.61151385992126</v>
       </c>
       <c r="H4">
-        <v>1.149570685602839</v>
+        <v>0.4979636473758831</v>
       </c>
       <c r="I4">
-        <v>1.136570968257015</v>
+        <v>0.5248842818437502</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.325984533796543</v>
+        <v>0.6775838449604379</v>
       </c>
       <c r="L4">
-        <v>0.2103461761103915</v>
+        <v>0.1387737542382581</v>
       </c>
       <c r="M4">
-        <v>0.1664636170782146</v>
+        <v>0.1719835711752076</v>
       </c>
       <c r="N4">
-        <v>2.269926114499752</v>
+        <v>1.177136084589852</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5389955528331427</v>
+        <v>0.7308512380791967</v>
       </c>
       <c r="C5">
-        <v>0.05992394189422612</v>
+        <v>0.072790593797329</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09245493871696908</v>
+        <v>0.03838901592974153</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.156687521659464</v>
+        <v>0.6101933716249306</v>
       </c>
       <c r="H5">
-        <v>1.151657167967308</v>
+        <v>0.4992701078405233</v>
       </c>
       <c r="I5">
-        <v>1.138879972878446</v>
+        <v>0.5266500989609639</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3181000535234659</v>
+        <v>0.6493396257019555</v>
       </c>
       <c r="L5">
-        <v>0.2097649353289057</v>
+        <v>0.1353301261324518</v>
       </c>
       <c r="M5">
-        <v>0.1649695199489045</v>
+        <v>0.1657504463448802</v>
       </c>
       <c r="N5">
-        <v>2.275805665856957</v>
+        <v>1.190950652090653</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5376814593847143</v>
+        <v>0.7258235584173462</v>
       </c>
       <c r="C6">
-        <v>0.05980603930315453</v>
+        <v>0.07245076558472618</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09246614202073289</v>
+        <v>0.03835151498025624</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.157000525412606</v>
+        <v>0.6099925124691978</v>
       </c>
       <c r="H6">
-        <v>1.152010363238716</v>
+        <v>0.4994981470345792</v>
       </c>
       <c r="I6">
-        <v>1.139270791945105</v>
+        <v>0.5269563356307785</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.31679272474328</v>
+        <v>0.6446538123405219</v>
       </c>
       <c r="L6">
-        <v>0.209669988304455</v>
+        <v>0.1347607545953906</v>
       </c>
       <c r="M6">
-        <v>0.1647226832687672</v>
+        <v>0.164717389285773</v>
       </c>
       <c r="N6">
-        <v>2.276792294668283</v>
+        <v>1.193264147194853</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5468250661602951</v>
+        <v>0.7607559059425739</v>
       </c>
       <c r="C7">
-        <v>0.06062231598431822</v>
+        <v>0.07480928708210399</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09239108895343051</v>
+        <v>0.03861539406414494</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.15488346144592</v>
+        <v>0.6114948082849381</v>
       </c>
       <c r="H7">
-        <v>1.149598373082014</v>
+        <v>0.4979805184206683</v>
       </c>
       <c r="I7">
-        <v>1.136601611530885</v>
+        <v>0.5249072181869998</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3258780749156216</v>
+        <v>0.6772026489644247</v>
       </c>
       <c r="L7">
-        <v>0.2103382322482332</v>
+        <v>0.1387271470224292</v>
       </c>
       <c r="M7">
-        <v>0.1664433829603489</v>
+        <v>0.1718993763582368</v>
       </c>
       <c r="N7">
-        <v>2.270004715443699</v>
+        <v>1.177321074604748</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5877237972984517</v>
+        <v>0.9158629378248975</v>
       </c>
       <c r="C8">
-        <v>0.06417259857299484</v>
+        <v>0.08521981841716553</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09212682868156463</v>
+        <v>0.03987053425659504</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.146915601863199</v>
+        <v>0.6209005159943928</v>
       </c>
       <c r="H8">
-        <v>1.139933446031122</v>
+        <v>0.4929422250351934</v>
       </c>
       <c r="I8">
-        <v>1.125900018063128</v>
+        <v>0.517813079740062</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3662410906011928</v>
+        <v>0.8215270359998783</v>
       </c>
       <c r="L8">
-        <v>0.2135144532415083</v>
+        <v>0.156602980715796</v>
       </c>
       <c r="M8">
-        <v>0.1742184523410515</v>
+        <v>0.203898340858359</v>
       </c>
       <c r="N8">
-        <v>2.241554521609633</v>
+        <v>1.109864313850554</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6698751639467275</v>
+        <v>1.224494167726817</v>
       </c>
       <c r="C9">
-        <v>0.07094985097104711</v>
+        <v>0.1057421626695429</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09184800543126137</v>
+        <v>0.0426791251985108</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.136234028966129</v>
+        <v>0.650360748225765</v>
       </c>
       <c r="H9">
-        <v>1.124493253796629</v>
+        <v>0.4894848803029817</v>
       </c>
       <c r="I9">
-        <v>1.108782627802476</v>
+        <v>0.5114679803651683</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4463499205432697</v>
+        <v>1.108033084781567</v>
       </c>
       <c r="L9">
-        <v>0.2205566754393402</v>
+        <v>0.1931875817520563</v>
       </c>
       <c r="M9">
-        <v>0.1901136624830571</v>
+        <v>0.2679913374255882</v>
       </c>
       <c r="N9">
-        <v>2.191159441271571</v>
+        <v>0.9884811426668012</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7314038139879813</v>
+        <v>1.455032612886811</v>
       </c>
       <c r="C10">
-        <v>0.07581807244227434</v>
+        <v>0.1209865539099866</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0917881288845841</v>
+        <v>0.04497590766962922</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.131405115537376</v>
+        <v>0.6797707522757293</v>
       </c>
       <c r="H10">
-        <v>1.115286911346175</v>
+        <v>0.4913271179486429</v>
       </c>
       <c r="I10">
-        <v>1.098563210377122</v>
+        <v>0.5119884288410148</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5057810188641838</v>
+        <v>1.32168841365899</v>
       </c>
       <c r="L10">
-        <v>0.2262243945203295</v>
+        <v>0.221193219607926</v>
       </c>
       <c r="M10">
-        <v>0.2021837093980636</v>
+        <v>0.3161494454671612</v>
       </c>
       <c r="N10">
-        <v>2.15741959578139</v>
+        <v>0.9064310851164912</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.759646266896965</v>
+        <v>1.560987889576012</v>
       </c>
       <c r="C11">
-        <v>0.07800902171375412</v>
+        <v>0.1279824119027211</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09179217053961786</v>
+        <v>0.04607653645778242</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.129865051854509</v>
+        <v>0.6950868641229278</v>
       </c>
       <c r="H11">
-        <v>1.111562088938967</v>
+        <v>0.4932282855619832</v>
       </c>
       <c r="I11">
-        <v>1.094425596213561</v>
+        <v>0.5134860628026416</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5329412583388944</v>
+        <v>1.419820090245793</v>
       </c>
       <c r="L11">
-        <v>0.228909588850172</v>
+        <v>0.2342245971350962</v>
       </c>
       <c r="M11">
-        <v>0.2077591347329459</v>
+        <v>0.3383497473324653</v>
       </c>
       <c r="N11">
-        <v>2.142783030310971</v>
+        <v>0.8707683811950755</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7703768915062597</v>
+        <v>1.601288489113671</v>
       </c>
       <c r="C12">
-        <v>0.07883530009318918</v>
+        <v>0.1306425677243794</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09179818141188889</v>
+        <v>0.04650178998059218</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.129376376615781</v>
+        <v>0.7011877843679883</v>
       </c>
       <c r="H12">
-        <v>1.11021814034406</v>
+        <v>0.494111134742667</v>
       </c>
       <c r="I12">
-        <v>1.092932285933131</v>
+        <v>0.5142466919978261</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5432438112411262</v>
+        <v>1.457136961189235</v>
       </c>
       <c r="L12">
-        <v>0.229941724283691</v>
+        <v>0.2392052339146034</v>
       </c>
       <c r="M12">
-        <v>0.2098824986483123</v>
+        <v>0.3468038229020109</v>
       </c>
       <c r="N12">
-        <v>2.137342891463327</v>
+        <v>0.8575134910777464</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7680642747464788</v>
+        <v>1.592600765245294</v>
       </c>
       <c r="C13">
-        <v>0.0786574966998046</v>
+        <v>0.1300691305268913</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09179668787671602</v>
+        <v>0.04640981997947691</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.129477416618684</v>
+        <v>0.6998600780101185</v>
       </c>
       <c r="H13">
-        <v>1.110504624120665</v>
+        <v>0.4939135836946633</v>
       </c>
       <c r="I13">
-        <v>1.093250627484466</v>
+        <v>0.5140740669969972</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5410241971732432</v>
+        <v>1.449092782822845</v>
       </c>
       <c r="L13">
-        <v>0.229718755533483</v>
+        <v>0.2381304545094594</v>
       </c>
       <c r="M13">
-        <v>0.2094246590888389</v>
+        <v>0.3449808961125598</v>
       </c>
       <c r="N13">
-        <v>2.138509967179742</v>
+        <v>0.860356879064117</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7605283669570326</v>
+        <v>1.56429975207169</v>
       </c>
       <c r="C14">
-        <v>0.07807706794203284</v>
+        <v>0.1282010313346262</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09179257536473706</v>
+        <v>0.04611134994021704</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.129822953539474</v>
+        <v>0.6955826227272865</v>
       </c>
       <c r="H14">
-        <v>1.111450187757242</v>
+        <v>0.4932975928091281</v>
       </c>
       <c r="I14">
-        <v>1.094301267353202</v>
+        <v>0.5135446890635507</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.53378850580566</v>
+        <v>1.422886905256831</v>
       </c>
       <c r="L14">
-        <v>0.2289941967749058</v>
+        <v>0.2346334124208198</v>
       </c>
       <c r="M14">
-        <v>0.2079335838539649</v>
+        <v>0.3390442901761688</v>
       </c>
       <c r="N14">
-        <v>2.142333414071548</v>
+        <v>0.8696728225686563</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7559170551306522</v>
+        <v>1.546988379296408</v>
       </c>
       <c r="C15">
-        <v>0.07772109787065062</v>
+        <v>0.1270582642326161</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09179063928901599</v>
+        <v>0.0459296450309381</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.130046916009164</v>
+        <v>0.6930024566335078</v>
       </c>
       <c r="H15">
-        <v>1.112038039643082</v>
+        <v>0.492941808029201</v>
       </c>
       <c r="I15">
-        <v>1.094954388284847</v>
+        <v>0.513246007076404</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5293587115079958</v>
+        <v>1.406856101222701</v>
       </c>
       <c r="L15">
-        <v>0.2285523755954415</v>
+        <v>0.232497479740843</v>
       </c>
       <c r="M15">
-        <v>0.20702182604375</v>
+        <v>0.3354142680446586</v>
       </c>
       <c r="N15">
-        <v>2.144688724035188</v>
+        <v>0.8754119713118786</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7295631444985133</v>
+        <v>1.44813180797189</v>
       </c>
       <c r="C16">
-        <v>0.07567441424227184</v>
+        <v>0.1205307706979823</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09178849267599531</v>
+        <v>0.04490513933878937</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.131518983181863</v>
+        <v>0.6788106752907908</v>
       </c>
       <c r="H16">
-        <v>1.115539653912279</v>
+        <v>0.491225106809182</v>
       </c>
       <c r="I16">
-        <v>1.098843900603711</v>
+        <v>0.5119169498518161</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.504008511099471</v>
+        <v>1.315295972930045</v>
       </c>
       <c r="L16">
-        <v>0.2260510567642768</v>
+        <v>0.2203477912080984</v>
       </c>
       <c r="M16">
-        <v>0.2018210373578242</v>
+        <v>0.3147049323865048</v>
       </c>
       <c r="N16">
-        <v>2.15839045807636</v>
+        <v>0.9087960791485727</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7134602378067427</v>
+        <v>1.387778836446017</v>
       </c>
       <c r="C17">
-        <v>0.07441279619401087</v>
+        <v>0.1165435159100241</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09179517475958399</v>
+        <v>0.04429123971058146</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.13259029248205</v>
+        <v>0.6706161499365351</v>
       </c>
       <c r="H17">
-        <v>1.117806382218774</v>
+        <v>0.4904511756997323</v>
       </c>
       <c r="I17">
-        <v>1.101360931692184</v>
+        <v>0.5114329651015765</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4884886636434373</v>
+        <v>1.259382065833023</v>
       </c>
       <c r="L17">
-        <v>0.2245439177666384</v>
+        <v>0.2129717796415918</v>
       </c>
       <c r="M17">
-        <v>0.1986521385986961</v>
+        <v>0.3020790222058594</v>
       </c>
       <c r="N17">
-        <v>2.166978384354838</v>
+        <v>0.9297093214352383</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7042220943304187</v>
+        <v>1.353165851517957</v>
       </c>
       <c r="C18">
-        <v>0.07368492211226396</v>
+        <v>0.1142557625199743</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09180196337038815</v>
+        <v>0.04394336587171566</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.133268281261181</v>
+        <v>0.6660837913903492</v>
       </c>
       <c r="H18">
-        <v>1.119153744564187</v>
+        <v>0.4901054541874714</v>
       </c>
       <c r="I18">
-        <v>1.102856782795754</v>
+        <v>0.5112724900802164</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4795738210566753</v>
+        <v>1.227308846292317</v>
       </c>
       <c r="L18">
-        <v>0.2236871189970771</v>
+        <v>0.2087564706602194</v>
       </c>
       <c r="M18">
-        <v>0.1968374507418105</v>
+        <v>0.2948441735752141</v>
       </c>
       <c r="N18">
-        <v>2.171984933009066</v>
+        <v>0.941893838282617</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7010983252608014</v>
+        <v>1.341463096943386</v>
       </c>
       <c r="C19">
-        <v>0.0734380940046151</v>
+        <v>0.1134820683633819</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09180476826463924</v>
+        <v>0.04382646610013552</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.133508448075261</v>
+        <v>0.6645796271725999</v>
       </c>
       <c r="H19">
-        <v>1.119617428069702</v>
+        <v>0.4900051806570787</v>
       </c>
       <c r="I19">
-        <v>1.103371517269359</v>
+        <v>0.5112380478627259</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4765574403569133</v>
+        <v>1.216463714321037</v>
       </c>
       <c r="L19">
-        <v>0.2233987527575181</v>
+        <v>0.2073337891947062</v>
       </c>
       <c r="M19">
-        <v>0.1962244023017092</v>
+        <v>0.2923991050464281</v>
       </c>
       <c r="N19">
-        <v>2.17369157042233</v>
+        <v>0.9460457447123858</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7151719579810276</v>
+        <v>1.394192962967821</v>
       </c>
       <c r="C20">
-        <v>0.07454732776005812</v>
+        <v>0.1169673700964893</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09179415874551111</v>
+        <v>0.04435604648282165</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.132469853053934</v>
+        <v>0.6714695895764606</v>
       </c>
       <c r="H20">
-        <v>1.117560572994535</v>
+        <v>0.4905232016422616</v>
       </c>
       <c r="I20">
-        <v>1.101088009072519</v>
+        <v>0.5114721982944346</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4901395631841012</v>
+        <v>1.265325043646385</v>
       </c>
       <c r="L20">
-        <v>0.2247033137814469</v>
+        <v>0.213754127608965</v>
       </c>
       <c r="M20">
-        <v>0.1989886482814995</v>
+        <v>0.3034202162357715</v>
       </c>
       <c r="N20">
-        <v>2.166057250301948</v>
+        <v>0.9274668736016878</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7627408777791516</v>
+        <v>1.572607441009438</v>
       </c>
       <c r="C21">
-        <v>0.07824764575966014</v>
+        <v>0.1287494210788651</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09179366185301063</v>
+        <v>0.04619878429313928</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.129718895180289</v>
+        <v>0.6968306577577152</v>
       </c>
       <c r="H21">
-        <v>1.111170646710647</v>
+        <v>0.4934740189954709</v>
       </c>
       <c r="I21">
-        <v>1.093990673814545</v>
+        <v>0.5136948269038797</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5359133301987242</v>
+        <v>1.430579778604709</v>
       </c>
       <c r="L21">
-        <v>0.2292066022341004</v>
+        <v>0.2356592982643377</v>
       </c>
       <c r="M21">
-        <v>0.2083712220466509</v>
+        <v>0.3407866882928587</v>
       </c>
       <c r="N21">
-        <v>2.141207595251862</v>
+        <v>0.8669296349258442</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.794038462656971</v>
+        <v>1.690258440371252</v>
       </c>
       <c r="C22">
-        <v>0.08064628319495171</v>
+        <v>0.1365148047603952</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09181944407727727</v>
+        <v>0.04745271232160952</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.128471924041818</v>
+        <v>0.7151719072708147</v>
       </c>
       <c r="H22">
-        <v>1.107382407489425</v>
+        <v>0.4963573656601312</v>
       </c>
       <c r="I22">
-        <v>1.08978065234313</v>
+        <v>0.5162816579209561</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.565931308991992</v>
+        <v>1.539506908533667</v>
       </c>
       <c r="L22">
-        <v>0.2322389736134625</v>
+        <v>0.2502454238497194</v>
       </c>
       <c r="M22">
-        <v>0.2145735870472194</v>
+        <v>0.3654862380020134</v>
       </c>
       <c r="N22">
-        <v>2.12556386164902</v>
+        <v>0.8288266514871392</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7773154444557804</v>
+        <v>1.627362391594573</v>
       </c>
       <c r="C23">
-        <v>0.07936788723294796</v>
+        <v>0.1323635405229595</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0918033006366219</v>
+        <v>0.04677877544976994</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.129087015137742</v>
+        <v>0.7052133639863172</v>
       </c>
       <c r="H23">
-        <v>1.109368779589943</v>
+        <v>0.4947275889957723</v>
       </c>
       <c r="I23">
-        <v>1.091988413232549</v>
+        <v>0.5147929749457418</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5499009243326611</v>
+        <v>1.481278386806309</v>
       </c>
       <c r="L23">
-        <v>0.2306123983321271</v>
+        <v>0.2424344402731293</v>
       </c>
       <c r="M23">
-        <v>0.2112568705412698</v>
+        <v>0.3522763381542546</v>
       </c>
       <c r="N23">
-        <v>2.13385857938165</v>
+        <v>0.8490254312734784</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7143980280986284</v>
+        <v>1.39129287405899</v>
       </c>
       <c r="C24">
-        <v>0.07448651399442952</v>
+        <v>0.1167757315397324</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0917946089048538</v>
+        <v>0.04432673159723066</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.132524110353231</v>
+        <v>0.6710831943236428</v>
       </c>
       <c r="H24">
-        <v>1.117671565689434</v>
+        <v>0.4904903304105659</v>
       </c>
       <c r="I24">
-        <v>1.101211245451481</v>
+        <v>0.511454095039241</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4893931674130272</v>
+        <v>1.262637999380786</v>
       </c>
       <c r="L24">
-        <v>0.2246312207009993</v>
+        <v>0.2134003497197341</v>
       </c>
       <c r="M24">
-        <v>0.1988364899612378</v>
+        <v>0.3028137881864126</v>
       </c>
       <c r="N24">
-        <v>2.166473479341127</v>
+        <v>0.928480182923014</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6474440528338619</v>
+        <v>1.140417480189086</v>
       </c>
       <c r="C25">
-        <v>0.06913604150216202</v>
+        <v>0.1001688572559374</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09189790594840197</v>
+        <v>0.04187999467565362</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.138593916943606</v>
+        <v>0.6411074387346503</v>
       </c>
       <c r="H25">
-        <v>1.128294579852778</v>
+        <v>0.4896862694519939</v>
       </c>
       <c r="I25">
-        <v>1.112999359795438</v>
+        <v>0.512317899360653</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4245767571747479</v>
+        <v>1.030049874625291</v>
       </c>
       <c r="L25">
-        <v>0.2185646902249871</v>
+        <v>0.1831073608105314</v>
       </c>
       <c r="M25">
-        <v>0.1857445309808128</v>
+        <v>0.2504838512774512</v>
       </c>
       <c r="N25">
-        <v>2.204215420786491</v>
+        <v>1.020103515308682</v>
       </c>
       <c r="O25">
         <v>0</v>
